--- a/rocfft_3d_dev/perf counter.xlsx
+++ b/rocfft_3d_dev/perf counter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feiw\Desktop\fft report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feiw\source\repos\fft_test\rocfft_3d_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A594FD71-85EC-47B3-9FF0-C60356D1270D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E372B0CB-5EF6-47E4-9B15-8E78F168443E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12645" windowWidth="16440" windowHeight="28440" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="perf counter" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="glb_rd" sheetId="10" r:id="rId10"/>
     <sheet name="lds_wr" sheetId="11" r:id="rId11"/>
     <sheet name="mem stall" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
   <si>
     <t>fft_fwd_ip_len50</t>
   </si>
@@ -495,6 +496,39 @@
   <si>
     <t>after</t>
   </si>
+  <si>
+    <t>tidx</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>twid</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>Wn</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
 </sst>
 </file>
 
@@ -651,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1440,11 +1474,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2268,6 +2331,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,12 +2355,42 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2304,6 +2403,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,72 +2448,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2388,10 +2457,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3863,7 +3953,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial"&amp;11&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4153,14 +4243,14 @@
       <c r="C3" s="132"/>
       <c r="D3" s="133"/>
       <c r="E3" s="103"/>
-      <c r="F3" s="305" t="s">
+      <c r="F3" s="283" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="306"/>
-      <c r="H3" s="305" t="s">
+      <c r="G3" s="284"/>
+      <c r="H3" s="283" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="306"/>
+      <c r="I3" s="284"/>
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -4234,7 +4324,7 @@
       <c r="B5" s="98">
         <v>2</v>
       </c>
-      <c r="C5" s="307" t="s">
+      <c r="C5" s="285" t="s">
         <v>72</v>
       </c>
       <c r="BN5" s="82"/>
@@ -4245,7 +4335,7 @@
       <c r="B6" s="98">
         <v>3</v>
       </c>
-      <c r="C6" s="308"/>
+      <c r="C6" s="286"/>
       <c r="BN6" s="82"/>
       <c r="BO6" s="76"/>
     </row>
@@ -4254,7 +4344,7 @@
       <c r="B7" s="98">
         <v>4</v>
       </c>
-      <c r="C7" s="309"/>
+      <c r="C7" s="287"/>
       <c r="BN7" s="82"/>
       <c r="BO7" s="76"/>
     </row>
@@ -4263,7 +4353,7 @@
       <c r="B8" s="98">
         <v>5</v>
       </c>
-      <c r="C8" s="310" t="s">
+      <c r="C8" s="288" t="s">
         <v>67</v>
       </c>
       <c r="BN8" s="82"/>
@@ -4274,7 +4364,7 @@
       <c r="B9" s="98">
         <v>6</v>
       </c>
-      <c r="C9" s="311"/>
+      <c r="C9" s="289"/>
       <c r="BN9" s="82"/>
       <c r="BO9" s="76"/>
     </row>
@@ -5367,89 +5457,89 @@
     </row>
     <row r="71" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B71" s="145"/>
-      <c r="C71" s="290" t="s">
+      <c r="C71" s="299" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="291"/>
-      <c r="E71" s="291"/>
-      <c r="F71" s="291"/>
-      <c r="G71" s="291"/>
-      <c r="H71" s="291"/>
-      <c r="I71" s="291"/>
-      <c r="J71" s="291"/>
-      <c r="K71" s="291"/>
-      <c r="L71" s="291"/>
-      <c r="M71" s="291"/>
-      <c r="N71" s="291"/>
-      <c r="O71" s="291"/>
-      <c r="P71" s="291"/>
-      <c r="Q71" s="291"/>
-      <c r="R71" s="291"/>
-      <c r="S71" s="291"/>
-      <c r="T71" s="291"/>
-      <c r="U71" s="291"/>
-      <c r="V71" s="291"/>
-      <c r="W71" s="291"/>
-      <c r="X71" s="291"/>
-      <c r="Y71" s="291"/>
-      <c r="Z71" s="291"/>
-      <c r="AA71" s="291"/>
-      <c r="AB71" s="291"/>
-      <c r="AC71" s="291"/>
-      <c r="AD71" s="291"/>
-      <c r="AE71" s="291"/>
-      <c r="AF71" s="291"/>
-      <c r="AG71" s="291"/>
-      <c r="AH71" s="292"/>
+      <c r="D71" s="300"/>
+      <c r="E71" s="300"/>
+      <c r="F71" s="300"/>
+      <c r="G71" s="300"/>
+      <c r="H71" s="300"/>
+      <c r="I71" s="300"/>
+      <c r="J71" s="300"/>
+      <c r="K71" s="300"/>
+      <c r="L71" s="300"/>
+      <c r="M71" s="300"/>
+      <c r="N71" s="300"/>
+      <c r="O71" s="300"/>
+      <c r="P71" s="300"/>
+      <c r="Q71" s="300"/>
+      <c r="R71" s="300"/>
+      <c r="S71" s="300"/>
+      <c r="T71" s="300"/>
+      <c r="U71" s="300"/>
+      <c r="V71" s="300"/>
+      <c r="W71" s="300"/>
+      <c r="X71" s="300"/>
+      <c r="Y71" s="300"/>
+      <c r="Z71" s="300"/>
+      <c r="AA71" s="300"/>
+      <c r="AB71" s="300"/>
+      <c r="AC71" s="300"/>
+      <c r="AD71" s="300"/>
+      <c r="AE71" s="300"/>
+      <c r="AF71" s="300"/>
+      <c r="AG71" s="300"/>
+      <c r="AH71" s="301"/>
       <c r="AI71" s="76"/>
     </row>
     <row r="72" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="96"/>
-      <c r="C72" s="282" t="s">
+      <c r="C72" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="281"/>
-      <c r="E72" s="281"/>
-      <c r="F72" s="281"/>
-      <c r="G72" s="281"/>
-      <c r="H72" s="281"/>
-      <c r="I72" s="281"/>
-      <c r="J72" s="281"/>
-      <c r="K72" s="282" t="s">
+      <c r="D72" s="294"/>
+      <c r="E72" s="294"/>
+      <c r="F72" s="294"/>
+      <c r="G72" s="294"/>
+      <c r="H72" s="294"/>
+      <c r="I72" s="294"/>
+      <c r="J72" s="294"/>
+      <c r="K72" s="293" t="s">
         <v>98</v>
       </c>
-      <c r="L72" s="281"/>
-      <c r="M72" s="281"/>
-      <c r="N72" s="281"/>
-      <c r="O72" s="281"/>
-      <c r="P72" s="281"/>
-      <c r="Q72" s="281"/>
-      <c r="R72" s="283"/>
-      <c r="S72" s="284" t="s">
+      <c r="L72" s="294"/>
+      <c r="M72" s="294"/>
+      <c r="N72" s="294"/>
+      <c r="O72" s="294"/>
+      <c r="P72" s="294"/>
+      <c r="Q72" s="294"/>
+      <c r="R72" s="295"/>
+      <c r="S72" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="T72" s="285"/>
-      <c r="U72" s="285"/>
-      <c r="V72" s="285"/>
-      <c r="W72" s="285"/>
-      <c r="X72" s="285"/>
-      <c r="Y72" s="285"/>
-      <c r="Z72" s="285"/>
-      <c r="AA72" s="284" t="s">
+      <c r="T72" s="297"/>
+      <c r="U72" s="297"/>
+      <c r="V72" s="297"/>
+      <c r="W72" s="297"/>
+      <c r="X72" s="297"/>
+      <c r="Y72" s="297"/>
+      <c r="Z72" s="297"/>
+      <c r="AA72" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="AB72" s="285"/>
-      <c r="AC72" s="285"/>
-      <c r="AD72" s="285"/>
-      <c r="AE72" s="285"/>
-      <c r="AF72" s="285"/>
-      <c r="AG72" s="285"/>
-      <c r="AH72" s="286"/>
+      <c r="AB72" s="297"/>
+      <c r="AC72" s="297"/>
+      <c r="AD72" s="297"/>
+      <c r="AE72" s="297"/>
+      <c r="AF72" s="297"/>
+      <c r="AG72" s="297"/>
+      <c r="AH72" s="298"/>
       <c r="AI72" s="76"/>
     </row>
     <row r="73" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A73" s="145"/>
-      <c r="B73" s="303" t="s">
+      <c r="B73" s="290" t="s">
         <v>92</v>
       </c>
       <c r="C73" s="177">
@@ -5552,7 +5642,7 @@
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A74" s="145"/>
-      <c r="B74" s="302"/>
+      <c r="B74" s="291"/>
       <c r="C74" s="170">
         <v>32</v>
       </c>
@@ -5653,7 +5743,7 @@
     </row>
     <row r="75" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="145"/>
-      <c r="B75" s="304"/>
+      <c r="B75" s="292"/>
       <c r="C75" s="81">
         <v>64</v>
       </c>
@@ -5754,7 +5844,7 @@
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A76" s="145"/>
-      <c r="B76" s="302" t="s">
+      <c r="B76" s="291" t="s">
         <v>93</v>
       </c>
       <c r="C76" s="81">
@@ -5857,7 +5947,7 @@
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A77" s="145"/>
-      <c r="B77" s="302"/>
+      <c r="B77" s="291"/>
       <c r="C77" s="130">
         <v>28</v>
       </c>
@@ -5958,7 +6048,7 @@
     </row>
     <row r="78" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="145"/>
-      <c r="B78" s="302"/>
+      <c r="B78" s="291"/>
       <c r="C78" s="86">
         <v>60</v>
       </c>
@@ -6059,7 +6149,7 @@
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A79" s="145"/>
-      <c r="B79" s="303" t="s">
+      <c r="B79" s="290" t="s">
         <v>94</v>
       </c>
       <c r="C79" s="81">
@@ -6162,7 +6252,7 @@
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A80" s="145"/>
-      <c r="B80" s="302"/>
+      <c r="B80" s="291"/>
       <c r="C80" s="130">
         <v>24</v>
       </c>
@@ -6263,7 +6353,7 @@
     </row>
     <row r="81" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="145"/>
-      <c r="B81" s="304"/>
+      <c r="B81" s="292"/>
       <c r="C81" s="86">
         <v>56</v>
       </c>
@@ -6364,7 +6454,7 @@
     </row>
     <row r="82" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A82" s="145"/>
-      <c r="B82" s="302" t="s">
+      <c r="B82" s="291" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="81">
@@ -6467,7 +6557,7 @@
     </row>
     <row r="83" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A83" s="145"/>
-      <c r="B83" s="302"/>
+      <c r="B83" s="291"/>
       <c r="C83" s="130">
         <v>20</v>
       </c>
@@ -6568,7 +6658,7 @@
     </row>
     <row r="84" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A84" s="145"/>
-      <c r="B84" s="302"/>
+      <c r="B84" s="291"/>
       <c r="C84" s="86">
         <v>52</v>
       </c>
@@ -6669,7 +6759,7 @@
     </row>
     <row r="85" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="145"/>
-      <c r="B85" s="304"/>
+      <c r="B85" s="292"/>
       <c r="C85" s="81">
         <v>84</v>
       </c>
@@ -6718,86 +6808,86 @@
       <c r="R85" s="82">
         <v>99</v>
       </c>
-      <c r="S85" s="293" t="s">
+      <c r="S85" s="302" t="s">
         <v>104</v>
       </c>
-      <c r="T85" s="294"/>
-      <c r="U85" s="294"/>
-      <c r="V85" s="294"/>
-      <c r="W85" s="294"/>
-      <c r="X85" s="294"/>
-      <c r="Y85" s="294"/>
-      <c r="Z85" s="294"/>
-      <c r="AA85" s="294"/>
-      <c r="AB85" s="294"/>
-      <c r="AC85" s="294"/>
-      <c r="AD85" s="294"/>
-      <c r="AE85" s="294"/>
-      <c r="AF85" s="294"/>
-      <c r="AG85" s="294"/>
-      <c r="AH85" s="295"/>
+      <c r="T85" s="303"/>
+      <c r="U85" s="303"/>
+      <c r="V85" s="303"/>
+      <c r="W85" s="303"/>
+      <c r="X85" s="303"/>
+      <c r="Y85" s="303"/>
+      <c r="Z85" s="303"/>
+      <c r="AA85" s="303"/>
+      <c r="AB85" s="303"/>
+      <c r="AC85" s="303"/>
+      <c r="AD85" s="303"/>
+      <c r="AE85" s="303"/>
+      <c r="AF85" s="303"/>
+      <c r="AG85" s="303"/>
+      <c r="AH85" s="304"/>
       <c r="AI85" s="76"/>
     </row>
     <row r="86" spans="1:75" x14ac:dyDescent="0.35">
       <c r="B86" s="174"/>
-      <c r="C86" s="296" t="s">
+      <c r="C86" s="305" t="s">
         <v>101</v>
       </c>
-      <c r="D86" s="297"/>
-      <c r="E86" s="297"/>
-      <c r="F86" s="297"/>
-      <c r="G86" s="297"/>
-      <c r="H86" s="297"/>
-      <c r="I86" s="297"/>
-      <c r="J86" s="297"/>
-      <c r="K86" s="297"/>
-      <c r="L86" s="297"/>
-      <c r="M86" s="297"/>
-      <c r="N86" s="297"/>
-      <c r="O86" s="297"/>
-      <c r="P86" s="297"/>
-      <c r="Q86" s="297"/>
-      <c r="R86" s="298"/>
-      <c r="S86" s="299" t="s">
+      <c r="D86" s="306"/>
+      <c r="E86" s="306"/>
+      <c r="F86" s="306"/>
+      <c r="G86" s="306"/>
+      <c r="H86" s="306"/>
+      <c r="I86" s="306"/>
+      <c r="J86" s="306"/>
+      <c r="K86" s="306"/>
+      <c r="L86" s="306"/>
+      <c r="M86" s="306"/>
+      <c r="N86" s="306"/>
+      <c r="O86" s="306"/>
+      <c r="P86" s="306"/>
+      <c r="Q86" s="306"/>
+      <c r="R86" s="307"/>
+      <c r="S86" s="308" t="s">
         <v>102</v>
       </c>
-      <c r="T86" s="300"/>
-      <c r="U86" s="300"/>
-      <c r="V86" s="300"/>
-      <c r="W86" s="300"/>
-      <c r="X86" s="300"/>
-      <c r="Y86" s="300"/>
-      <c r="Z86" s="300"/>
-      <c r="AA86" s="300"/>
-      <c r="AB86" s="300"/>
-      <c r="AC86" s="300"/>
-      <c r="AD86" s="300"/>
-      <c r="AE86" s="300"/>
-      <c r="AF86" s="300"/>
-      <c r="AG86" s="300"/>
-      <c r="AH86" s="301"/>
+      <c r="T86" s="309"/>
+      <c r="U86" s="309"/>
+      <c r="V86" s="309"/>
+      <c r="W86" s="309"/>
+      <c r="X86" s="309"/>
+      <c r="Y86" s="309"/>
+      <c r="Z86" s="309"/>
+      <c r="AA86" s="309"/>
+      <c r="AB86" s="309"/>
+      <c r="AC86" s="309"/>
+      <c r="AD86" s="309"/>
+      <c r="AE86" s="309"/>
+      <c r="AF86" s="309"/>
+      <c r="AG86" s="309"/>
+      <c r="AH86" s="310"/>
       <c r="AI86" s="76"/>
     </row>
     <row r="87" spans="1:75" x14ac:dyDescent="0.35">
       <c r="B87" s="145"/>
-      <c r="C87" s="287" t="s">
+      <c r="C87" s="311" t="s">
         <v>103</v>
       </c>
-      <c r="D87" s="288"/>
-      <c r="E87" s="288"/>
-      <c r="F87" s="288"/>
-      <c r="G87" s="288"/>
-      <c r="H87" s="288"/>
-      <c r="I87" s="288"/>
-      <c r="J87" s="288"/>
-      <c r="K87" s="288"/>
-      <c r="L87" s="288"/>
-      <c r="M87" s="288"/>
-      <c r="N87" s="288"/>
-      <c r="O87" s="288"/>
-      <c r="P87" s="288"/>
-      <c r="Q87" s="288"/>
-      <c r="R87" s="289"/>
+      <c r="D87" s="312"/>
+      <c r="E87" s="312"/>
+      <c r="F87" s="312"/>
+      <c r="G87" s="312"/>
+      <c r="H87" s="312"/>
+      <c r="I87" s="312"/>
+      <c r="J87" s="312"/>
+      <c r="K87" s="312"/>
+      <c r="L87" s="312"/>
+      <c r="M87" s="312"/>
+      <c r="N87" s="312"/>
+      <c r="O87" s="312"/>
+      <c r="P87" s="312"/>
+      <c r="Q87" s="312"/>
+      <c r="R87" s="313"/>
       <c r="S87" s="81"/>
       <c r="Z87" s="145"/>
       <c r="AA87" s="81"/>
@@ -6938,102 +7028,102 @@
     </row>
     <row r="92" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B92" s="145"/>
-      <c r="C92" s="284" t="s">
+      <c r="C92" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="285"/>
-      <c r="E92" s="285"/>
-      <c r="F92" s="285"/>
-      <c r="G92" s="284" t="s">
+      <c r="D92" s="297"/>
+      <c r="E92" s="297"/>
+      <c r="F92" s="297"/>
+      <c r="G92" s="296" t="s">
         <v>106</v>
       </c>
-      <c r="H92" s="285"/>
-      <c r="I92" s="285"/>
-      <c r="J92" s="286"/>
-      <c r="K92" s="285" t="s">
+      <c r="H92" s="297"/>
+      <c r="I92" s="297"/>
+      <c r="J92" s="298"/>
+      <c r="K92" s="297" t="s">
         <v>107</v>
       </c>
-      <c r="L92" s="285"/>
-      <c r="M92" s="285"/>
-      <c r="N92" s="285"/>
-      <c r="O92" s="284" t="s">
+      <c r="L92" s="297"/>
+      <c r="M92" s="297"/>
+      <c r="N92" s="297"/>
+      <c r="O92" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="P92" s="285"/>
-      <c r="Q92" s="285"/>
-      <c r="R92" s="286"/>
-      <c r="S92" s="285" t="s">
+      <c r="P92" s="297"/>
+      <c r="Q92" s="297"/>
+      <c r="R92" s="298"/>
+      <c r="S92" s="297" t="s">
         <v>109</v>
       </c>
-      <c r="T92" s="285"/>
-      <c r="U92" s="285"/>
-      <c r="V92" s="285"/>
-      <c r="W92" s="284" t="s">
+      <c r="T92" s="297"/>
+      <c r="U92" s="297"/>
+      <c r="V92" s="297"/>
+      <c r="W92" s="296" t="s">
         <v>110</v>
       </c>
-      <c r="X92" s="285"/>
-      <c r="Y92" s="285"/>
-      <c r="Z92" s="286"/>
-      <c r="AA92" s="285" t="s">
+      <c r="X92" s="297"/>
+      <c r="Y92" s="297"/>
+      <c r="Z92" s="298"/>
+      <c r="AA92" s="297" t="s">
         <v>111</v>
       </c>
-      <c r="AB92" s="285"/>
-      <c r="AC92" s="285"/>
-      <c r="AD92" s="285"/>
-      <c r="AE92" s="284" t="s">
+      <c r="AB92" s="297"/>
+      <c r="AC92" s="297"/>
+      <c r="AD92" s="297"/>
+      <c r="AE92" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="AF92" s="285"/>
-      <c r="AG92" s="285"/>
-      <c r="AH92" s="286"/>
-      <c r="AI92" s="285" t="s">
+      <c r="AF92" s="297"/>
+      <c r="AG92" s="297"/>
+      <c r="AH92" s="298"/>
+      <c r="AI92" s="297" t="s">
         <v>113</v>
       </c>
-      <c r="AJ92" s="285"/>
-      <c r="AK92" s="285"/>
-      <c r="AL92" s="285"/>
-      <c r="AM92" s="284" t="s">
+      <c r="AJ92" s="297"/>
+      <c r="AK92" s="297"/>
+      <c r="AL92" s="297"/>
+      <c r="AM92" s="296" t="s">
         <v>114</v>
       </c>
-      <c r="AN92" s="285"/>
-      <c r="AO92" s="285"/>
-      <c r="AP92" s="286"/>
-      <c r="AQ92" s="285" t="s">
+      <c r="AN92" s="297"/>
+      <c r="AO92" s="297"/>
+      <c r="AP92" s="298"/>
+      <c r="AQ92" s="297" t="s">
         <v>115</v>
       </c>
-      <c r="AR92" s="285"/>
-      <c r="AS92" s="285"/>
-      <c r="AT92" s="285"/>
-      <c r="AU92" s="284" t="s">
+      <c r="AR92" s="297"/>
+      <c r="AS92" s="297"/>
+      <c r="AT92" s="297"/>
+      <c r="AU92" s="296" t="s">
         <v>116</v>
       </c>
-      <c r="AV92" s="285"/>
-      <c r="AW92" s="285"/>
-      <c r="AX92" s="286"/>
-      <c r="AY92" s="281" t="s">
+      <c r="AV92" s="297"/>
+      <c r="AW92" s="297"/>
+      <c r="AX92" s="298"/>
+      <c r="AY92" s="294" t="s">
         <v>117</v>
       </c>
-      <c r="AZ92" s="281"/>
-      <c r="BA92" s="281"/>
-      <c r="BB92" s="281"/>
-      <c r="BC92" s="282" t="s">
+      <c r="AZ92" s="294"/>
+      <c r="BA92" s="294"/>
+      <c r="BB92" s="294"/>
+      <c r="BC92" s="293" t="s">
         <v>118</v>
       </c>
-      <c r="BD92" s="281"/>
-      <c r="BE92" s="281"/>
-      <c r="BF92" s="283"/>
-      <c r="BG92" s="281" t="s">
+      <c r="BD92" s="294"/>
+      <c r="BE92" s="294"/>
+      <c r="BF92" s="295"/>
+      <c r="BG92" s="294" t="s">
         <v>119</v>
       </c>
-      <c r="BH92" s="281"/>
-      <c r="BI92" s="281"/>
-      <c r="BJ92" s="281"/>
-      <c r="BK92" s="282" t="s">
+      <c r="BH92" s="294"/>
+      <c r="BI92" s="294"/>
+      <c r="BJ92" s="294"/>
+      <c r="BK92" s="293" t="s">
         <v>120</v>
       </c>
-      <c r="BL92" s="281"/>
-      <c r="BM92" s="281"/>
-      <c r="BN92" s="283"/>
+      <c r="BL92" s="294"/>
+      <c r="BM92" s="294"/>
+      <c r="BN92" s="295"/>
       <c r="BO92" s="76"/>
     </row>
     <row r="93" spans="1:75" x14ac:dyDescent="0.35">
@@ -8190,32 +8280,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="K72:R72"/>
-    <mergeCell ref="S72:Z72"/>
-    <mergeCell ref="AA72:AH72"/>
-    <mergeCell ref="C71:AH71"/>
-    <mergeCell ref="S85:AH85"/>
-    <mergeCell ref="C86:R86"/>
-    <mergeCell ref="S86:AH86"/>
-    <mergeCell ref="C87:R87"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="O92:R92"/>
-    <mergeCell ref="S92:V92"/>
-    <mergeCell ref="W92:Z92"/>
-    <mergeCell ref="AA92:AD92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="AI92:AL92"/>
     <mergeCell ref="BG92:BJ92"/>
     <mergeCell ref="BK92:BN92"/>
     <mergeCell ref="AM92:AP92"/>
@@ -8223,6 +8287,32 @@
     <mergeCell ref="AU92:AX92"/>
     <mergeCell ref="AY92:BB92"/>
     <mergeCell ref="BC92:BF92"/>
+    <mergeCell ref="S92:V92"/>
+    <mergeCell ref="W92:Z92"/>
+    <mergeCell ref="AA92:AD92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="AI92:AL92"/>
+    <mergeCell ref="C87:R87"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="O92:R92"/>
+    <mergeCell ref="S72:Z72"/>
+    <mergeCell ref="AA72:AH72"/>
+    <mergeCell ref="C71:AH71"/>
+    <mergeCell ref="S85:AH85"/>
+    <mergeCell ref="C86:R86"/>
+    <mergeCell ref="S86:AH86"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="K72:R72"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B73:B75"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8522,14 +8612,14 @@
       </c>
       <c r="C3" s="122"/>
       <c r="D3" s="89"/>
-      <c r="E3" s="312" t="s">
+      <c r="E3" s="314" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312" t="s">
+      <c r="F3" s="314"/>
+      <c r="G3" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="312"/>
+      <c r="H3" s="314"/>
       <c r="I3" s="79"/>
       <c r="J3" s="79"/>
       <c r="K3" s="79"/>
@@ -8637,7 +8727,7 @@
       <c r="B6" s="98">
         <v>3</v>
       </c>
-      <c r="C6" s="313" t="s">
+      <c r="C6" s="315" t="s">
         <v>72</v>
       </c>
       <c r="R6" s="82"/>
@@ -8654,7 +8744,7 @@
       <c r="B7" s="98">
         <v>4</v>
       </c>
-      <c r="C7" s="313"/>
+      <c r="C7" s="315"/>
       <c r="R7" s="82"/>
       <c r="S7" s="81"/>
       <c r="AH7" s="82"/>
@@ -8672,7 +8762,7 @@
       <c r="B8" s="98">
         <v>5</v>
       </c>
-      <c r="C8" s="313"/>
+      <c r="C8" s="315"/>
       <c r="R8" s="82"/>
       <c r="S8" s="81"/>
       <c r="AH8" s="82"/>
@@ -8690,7 +8780,7 @@
       <c r="B9" s="98">
         <v>6</v>
       </c>
-      <c r="C9" s="314" t="s">
+      <c r="C9" s="316" t="s">
         <v>66</v>
       </c>
       <c r="R9" s="82"/>
@@ -8710,7 +8800,7 @@
       <c r="B10" s="98">
         <v>7</v>
       </c>
-      <c r="C10" s="314"/>
+      <c r="C10" s="316"/>
       <c r="R10" s="82"/>
       <c r="S10" s="81"/>
       <c r="AH10" s="82"/>
@@ -9746,8 +9836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5776AA8C-08DE-404F-9392-079A8EBAC60B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9757,6 +9847,1335 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65687CC0-31A4-402D-9DD1-AF5B5FD94940}">
+  <dimension ref="B3:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="12" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="325" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="325" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="325" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="325" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="325" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="325" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="325" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="325" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="325" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="325" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="325" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="317">
+        <v>0</v>
+      </c>
+      <c r="C4" s="318">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="318">
+        <v>0</v>
+      </c>
+      <c r="E4" s="318">
+        <v>0</v>
+      </c>
+      <c r="F4" s="319">
+        <f>9+9*C4+E4</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>E4+1</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f>(I4*H4/G4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f>COS(-2*3.141592653*J4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SIN(-2*3.141592653*J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="320">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" ref="C5:C33" si="0">B5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="321">
+        <f t="shared" ref="F5:F33" si="1">9+9*C5+E5</f>
+        <v>18</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H33" si="2">C5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I33" si="3">E5+1</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J33" si="4">(I5*H5/G5)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K34" si="5">COS(-2*3.141592653*J5)</f>
+        <v>0.99802672842901219</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L33" si="6">SIN(-2*3.141592653*J5)</f>
+        <v>-6.2790519517540791E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="320">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="321">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99211470131743462</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.12533323354089854</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="320">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="321">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.98228725073531964</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.18738131455096385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="320">
+        <v>4</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="321">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96858316114036513</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.24868988711915369</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="320">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="321">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95105651631337917</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.30901699431885482</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="320">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="18">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="321">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92977648591430551</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.36812455261887284</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="320">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="321">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.90482705250117657</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.42577929149036015</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="320">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="18">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="321">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87630668008932522</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.48175367401902092</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="322">
+        <v>9</v>
+      </c>
+      <c r="C13" s="323">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="323">
+        <v>9</v>
+      </c>
+      <c r="E13" s="323">
+        <v>0</v>
+      </c>
+      <c r="F13" s="324">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84432792555890002</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.53582679488936036</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="317">
+        <v>0</v>
+      </c>
+      <c r="C14" s="318">
+        <f>B14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="318">
+        <v>0</v>
+      </c>
+      <c r="E14" s="318">
+        <v>1</v>
+      </c>
+      <c r="F14" s="319">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="320">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="321">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>100</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99211470131743462</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.12533323354089854</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="320">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="321">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.96858316114036513</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.24868988711915369</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="320">
+        <v>3</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="321">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G17" s="1">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92977648591430551</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.36812455261887284</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="320">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="321">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.08</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87630668008932522</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.48175367401902092</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="320">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="18">
+        <v>5</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="321">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G19" s="1">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.80901699444428177</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.5877852521970427</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="320">
+        <v>6</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="18">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="321">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G20" s="1">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72896862751830949</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.68454710582550282</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="320">
+        <v>7</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="18">
+        <v>7</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="321">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63742398987593385</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.77051324267052379</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="320">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="18">
+        <v>8</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="321">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53582679513834985</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.84432792540088641</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="322">
+        <v>9</v>
+      </c>
+      <c r="C23" s="323">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="323">
+        <v>9</v>
+      </c>
+      <c r="E23" s="323">
+        <v>1</v>
+      </c>
+      <c r="F23" s="324">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="G23" s="1">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4257792917571907</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.90482705237561567</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="317">
+        <v>0</v>
+      </c>
+      <c r="C24" s="318">
+        <f>B24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="318">
+        <v>0</v>
+      </c>
+      <c r="E24" s="318">
+        <v>2</v>
+      </c>
+      <c r="F24" s="319">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="320">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="321">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>100</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.98228725073531964</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.18738131455096385</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="320">
+        <v>2</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="321">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92977648591430551</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.36812455261887284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="320">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="18">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2</v>
+      </c>
+      <c r="F27" s="321">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G27" s="1">
+        <v>100</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="4"/>
+        <v>0.09</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84432792555890002</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.53582679488936036</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="320">
+        <v>4</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="18">
+        <v>4</v>
+      </c>
+      <c r="E28" s="18">
+        <v>2</v>
+      </c>
+      <c r="F28" s="321">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G28" s="1">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72896862751830949</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.68454710582550282</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="320">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="18">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2</v>
+      </c>
+      <c r="F29" s="321">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="G29" s="1">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58778525243561908</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.80901699427094587</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="320">
+        <v>6</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D30" s="18">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18">
+        <v>2</v>
+      </c>
+      <c r="F30" s="321">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G30" s="1">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.18</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4257792917571907</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.90482705237561567</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="320">
+        <v>7</v>
+      </c>
+      <c r="C31" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="18">
+        <v>7</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2</v>
+      </c>
+      <c r="F31" s="321">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24868988740478556</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.96858316106702735</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="320">
+        <v>8</v>
+      </c>
+      <c r="C32" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D32" s="18">
+        <v>8</v>
+      </c>
+      <c r="E32" s="18">
+        <v>2</v>
+      </c>
+      <c r="F32" s="321">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="G32" s="1">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2790519811855544E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.99802672841049556</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="322">
+        <v>9</v>
+      </c>
+      <c r="C33" s="323">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="323">
+        <v>9</v>
+      </c>
+      <c r="E33" s="323">
+        <v>2</v>
+      </c>
+      <c r="F33" s="324">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="G33" s="1">
+        <v>100</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.12533323324832737</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.99211470135439495</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I34" s="1">
+        <f t="shared" ref="I5:I34" si="7">H34+1+E34</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9882,7 +11301,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial"&amp;11&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -10384,7 +11803,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial"&amp;11&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -10535,7 +11954,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial"&amp;10&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
+    <oddHeader>&amp;L&amp;"Arial"&amp;11&amp;K0078D7[AMD Official Use Only - Internal Distribution Only]&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -10798,7 +12217,7 @@
       <c r="D21" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="315"/>
+      <c r="E21" s="275"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
@@ -10810,7 +12229,7 @@
       <c r="D22" s="27">
         <v>0</v>
       </c>
-      <c r="E22" s="316"/>
+      <c r="E22" s="276"/>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
@@ -10822,31 +12241,31 @@
       <c r="D23" s="33">
         <v>0.1</v>
       </c>
-      <c r="E23" s="316"/>
+      <c r="E23" s="276"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="315"/>
-      <c r="C24" s="316"/>
-      <c r="D24" s="316"/>
-      <c r="E24" s="316"/>
+      <c r="B24" s="275"/>
+      <c r="C24" s="276"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="276"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="315"/>
-      <c r="C25" s="316"/>
-      <c r="D25" s="316"/>
-      <c r="E25" s="316"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="276"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="276"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="315"/>
-      <c r="C26" s="316"/>
-      <c r="D26" s="316"/>
-      <c r="E26" s="316"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="276"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="276"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="315"/>
-      <c r="C27" s="316"/>
-      <c r="D27" s="316"/>
-      <c r="E27" s="316"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="276"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12418,21 +13837,21 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
-      <c r="M2" s="278" t="s">
+      <c r="M2" s="280" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
-      <c r="R2" s="280"/>
-      <c r="S2" s="275" t="s">
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
+      <c r="Q2" s="281"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="277" t="s">
         <v>143</v>
       </c>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="276"/>
-      <c r="W2" s="277"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="279"/>
       <c r="X2" s="45"/>
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
